--- a/english.xlsx
+++ b/english.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\github\multilingual-engineering-glossary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\github\multilingual-engineering-glossary-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="2340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3300" uniqueCount="2338">
   <si>
     <t>Category</t>
   </si>
@@ -2334,9 +2334,6 @@
     <t>Anchored Wall</t>
   </si>
   <si>
-    <t>Antifer</t>
-  </si>
-  <si>
     <t>Armour Stone</t>
   </si>
   <si>
@@ -6856,9 +6853,6 @@
   </si>
   <si>
     <t>Retaining wall supported by anchors.</t>
-  </si>
-  <si>
-    <t>Grooved concrete cube.</t>
   </si>
   <si>
     <t>Large rock used for the outer layer.</t>
@@ -7407,7 +7401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D826"/>
+  <dimension ref="A1:D825"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7423,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2338</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2339</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,10 +7434,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7454,7 +7448,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -7468,7 +7462,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -7482,10 +7476,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -7496,10 +7490,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7510,10 +7504,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7524,10 +7518,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7538,10 +7532,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7552,10 +7546,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7566,10 +7560,10 @@
         <v>770</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7580,10 +7574,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7594,10 +7588,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7605,13 +7599,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>771</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>2279</v>
+        <v>1521</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>771</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7619,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1522</v>
@@ -7633,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1523</v>
@@ -7647,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1524</v>
@@ -7661,7 +7655,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1525</v>
@@ -7675,13 +7669,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>771</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1526</v>
+        <v>2278</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>841</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7689,13 +7683,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>772</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>2280</v>
+        <v>1526</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1470</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7703,7 +7697,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>1527</v>
@@ -7717,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>1528</v>
@@ -7731,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1529</v>
@@ -7745,7 +7739,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>1530</v>
@@ -7759,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>1531</v>
@@ -7773,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>1532</v>
@@ -7787,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1533</v>
@@ -7801,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>1534</v>
@@ -7815,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>1535</v>
@@ -7829,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1536</v>
@@ -7843,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1537</v>
@@ -7857,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>1538</v>
@@ -7871,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>1539</v>
@@ -7885,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>1540</v>
@@ -7899,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>1541</v>
@@ -7913,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>1542</v>
@@ -7927,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>1543</v>
@@ -7941,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>1544</v>
@@ -7955,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>1545</v>
@@ -7969,7 +7963,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>1546</v>
@@ -7983,7 +7977,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>1547</v>
@@ -7997,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>1548</v>
@@ -8011,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>1549</v>
@@ -8025,7 +8019,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>1550</v>
@@ -8039,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>1551</v>
@@ -8053,7 +8047,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>1552</v>
@@ -8067,7 +8061,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>1553</v>
@@ -8081,7 +8075,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>1554</v>
@@ -8095,7 +8089,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>1555</v>
@@ -8109,7 +8103,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1556</v>
@@ -8123,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>1557</v>
@@ -8137,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>1558</v>
@@ -8151,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>1559</v>
@@ -8165,7 +8159,7 @@
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1560</v>
@@ -8179,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1561</v>
@@ -8193,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>1562</v>
@@ -8207,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>1563</v>
@@ -8221,7 +8215,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>1564</v>
@@ -8235,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>1565</v>
@@ -8249,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>1566</v>
@@ -8263,7 +8257,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>1567</v>
@@ -8277,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>1568</v>
@@ -8291,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>1569</v>
@@ -8305,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>1570</v>
@@ -8319,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>1571</v>
@@ -8333,7 +8327,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>1572</v>
@@ -8347,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>1573</v>
@@ -8361,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>1574</v>
@@ -8375,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>1575</v>
@@ -8389,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>1576</v>
@@ -8403,13 +8397,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>772</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1577</v>
+        <v>2279</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>892</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -8417,13 +8411,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>773</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>2281</v>
+        <v>1577</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1471</v>
+        <v>892</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -8431,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>1578</v>
@@ -8445,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>1579</v>
@@ -8459,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1580</v>
@@ -8473,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>1581</v>
@@ -8487,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>1582</v>
@@ -8501,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>1583</v>
@@ -8515,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>1584</v>
@@ -8529,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>1585</v>
@@ -8543,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>1586</v>
@@ -8557,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>1587</v>
@@ -8571,7 +8565,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>1588</v>
@@ -8585,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>1589</v>
@@ -8599,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>1590</v>
@@ -8613,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>1591</v>
@@ -8627,13 +8621,13 @@
         <v>1</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>773</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1592</v>
+        <v>2280</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>907</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -8641,13 +8635,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>774</v>
+        <v>88</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>2282</v>
+        <v>1592</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1472</v>
+        <v>907</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -8655,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>1593</v>
@@ -8669,7 +8663,7 @@
         <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>1594</v>
@@ -8683,13 +8677,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>774</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1595</v>
+        <v>2281</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>910</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -8697,13 +8691,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>775</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>2283</v>
+        <v>1595</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1473</v>
+        <v>910</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -8711,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>1596</v>
@@ -8725,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>1597</v>
@@ -8739,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>1598</v>
@@ -8753,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>1599</v>
@@ -8767,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>1600</v>
@@ -8781,13 +8775,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1601</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>916</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -8795,13 +8789,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>1602</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>916</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -8809,7 +8803,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>1603</v>
@@ -8823,13 +8817,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>775</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1604</v>
+        <v>2282</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>918</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -8837,13 +8831,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>776</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>2284</v>
+        <v>1604</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>776</v>
+        <v>918</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -8851,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>1605</v>
@@ -8865,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>1606</v>
@@ -8879,7 +8873,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>1607</v>
@@ -8893,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>1608</v>
@@ -8907,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>1609</v>
@@ -8921,13 +8915,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>104</v>
+        <v>776</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1610</v>
+        <v>2283</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>924</v>
+        <v>776</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -8935,13 +8929,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>777</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>2285</v>
+        <v>1610</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>777</v>
+        <v>924</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -8949,13 +8943,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>1611</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>925</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -8963,13 +8957,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>777</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1612</v>
+        <v>2284</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -8977,13 +8971,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>778</v>
+        <v>107</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>2286</v>
+        <v>1612</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1285</v>
+        <v>925</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -8991,13 +8985,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>107</v>
+        <v>778</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1613</v>
+        <v>2285</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>926</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -9005,13 +8999,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>779</v>
+        <v>108</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>2287</v>
+        <v>1613</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1474</v>
+        <v>926</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -9019,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>1614</v>
@@ -9033,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>1615</v>
@@ -9047,13 +9041,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>1616</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>929</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -9061,13 +9055,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>1617</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>929</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -9075,7 +9069,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>1618</v>
@@ -9089,13 +9083,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>113</v>
+        <v>779</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1619</v>
+        <v>2286</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>931</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -9103,13 +9097,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>780</v>
+        <v>114</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>2288</v>
+        <v>1619</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1475</v>
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -9117,13 +9111,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>1620</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>114</v>
+        <v>931</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -9131,7 +9125,7 @@
         <v>1</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>1621</v>
@@ -9145,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>1622</v>
@@ -9159,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1623</v>
@@ -9173,13 +9167,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>118</v>
+        <v>780</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1624</v>
+        <v>2287</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>935</v>
+        <v>780</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -9187,13 +9181,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>781</v>
+        <v>119</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>2289</v>
+        <v>1624</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>781</v>
+        <v>935</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -9201,13 +9195,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>119</v>
+        <v>781</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1625</v>
+        <v>2288</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>936</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -9218,7 +9212,7 @@
         <v>782</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>1476</v>
@@ -9229,13 +9223,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>783</v>
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>2291</v>
+        <v>1625</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1477</v>
+        <v>936</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -9243,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>1626</v>
@@ -9257,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>1627</v>
@@ -9271,7 +9265,7 @@
         <v>1</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>1628</v>
@@ -9285,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>1629</v>
@@ -9299,13 +9293,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>124</v>
+        <v>783</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1630</v>
+        <v>2290</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>941</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -9313,13 +9307,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>784</v>
+        <v>125</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>2292</v>
+        <v>1630</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1478</v>
+        <v>941</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -9327,13 +9321,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>1631</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -9341,13 +9335,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>126</v>
+        <v>784</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1632</v>
+        <v>2291</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>914</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -9355,13 +9349,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>785</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>2293</v>
+        <v>1632</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1479</v>
+        <v>942</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -9369,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>1633</v>
@@ -9383,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>1634</v>
@@ -9397,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>1635</v>
@@ -9411,13 +9405,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>1636</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>946</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -9425,13 +9419,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>1637</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>131</v>
+        <v>946</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -9439,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>1638</v>
@@ -9453,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>1639</v>
@@ -9467,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>1640</v>
@@ -9481,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>1641</v>
@@ -9495,13 +9489,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>136</v>
+        <v>785</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1642</v>
+        <v>2292</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>951</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -9509,13 +9503,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>786</v>
+        <v>137</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>2294</v>
+        <v>1642</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1480</v>
+        <v>951</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -9523,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>1643</v>
@@ -9537,7 +9531,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>1644</v>
@@ -9551,13 +9545,13 @@
         <v>1</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>139</v>
+        <v>786</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1645</v>
+        <v>2293</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>954</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -9565,13 +9559,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>787</v>
+        <v>140</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>2295</v>
+        <v>1645</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>1481</v>
+        <v>954</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -9579,7 +9573,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>1646</v>
@@ -9593,13 +9587,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>141</v>
+        <v>787</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>1647</v>
+        <v>2294</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>956</v>
+        <v>787</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -9607,13 +9601,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>788</v>
+        <v>142</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>2296</v>
+        <v>1647</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>788</v>
+        <v>956</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -9621,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>1648</v>
@@ -9635,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>1649</v>
@@ -9649,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>1650</v>
@@ -9663,7 +9657,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>1651</v>
@@ -9677,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>1652</v>
@@ -9691,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>1653</v>
@@ -9705,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>1654</v>
@@ -9719,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>1655</v>
@@ -9733,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>1656</v>
@@ -9747,13 +9741,13 @@
         <v>1</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>788</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1657</v>
+        <v>2295</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>966</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -9761,13 +9755,13 @@
         <v>1</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>789</v>
+        <v>152</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>2297</v>
+        <v>1657</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1482</v>
+        <v>966</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -9775,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>1658</v>
@@ -9789,13 +9783,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>153</v>
+        <v>789</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1659</v>
+        <v>2296</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>968</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -9803,13 +9797,13 @@
         <v>1</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>790</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>2298</v>
+        <v>1659</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1483</v>
+        <v>968</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -9817,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>1660</v>
@@ -9831,13 +9825,13 @@
         <v>1</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>155</v>
+        <v>790</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1661</v>
+        <v>2297</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>970</v>
+        <v>790</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -9845,13 +9839,13 @@
         <v>1</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>791</v>
+        <v>156</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>2299</v>
+        <v>1661</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>791</v>
+        <v>970</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -9859,13 +9853,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>156</v>
+        <v>791</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1662</v>
+        <v>2298</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>971</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -9873,13 +9867,13 @@
         <v>1</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>792</v>
+        <v>157</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>2300</v>
+        <v>1662</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1484</v>
+        <v>971</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -9887,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>1663</v>
@@ -9901,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>1664</v>
@@ -9915,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>1665</v>
@@ -9929,7 +9923,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>1666</v>
@@ -9943,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>1667</v>
@@ -9957,7 +9951,7 @@
         <v>1</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>1668</v>
@@ -9971,7 +9965,7 @@
         <v>1</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>1669</v>
@@ -9985,13 +9979,13 @@
         <v>1</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>164</v>
+        <v>792</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1670</v>
+        <v>2299</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>979</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -10002,10 +9996,10 @@
         <v>793</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>1485</v>
+        <v>793</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -10013,13 +10007,13 @@
         <v>1</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>794</v>
+        <v>165</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>2302</v>
+        <v>1670</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>794</v>
+        <v>979</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -10027,13 +10021,13 @@
         <v>1</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>165</v>
+        <v>794</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1671</v>
+        <v>2301</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>980</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -10041,13 +10035,13 @@
         <v>1</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>795</v>
+        <v>166</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>2303</v>
+        <v>1671</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>1486</v>
+        <v>980</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -10055,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>1672</v>
@@ -10069,7 +10063,7 @@
         <v>1</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>1673</v>
@@ -10083,13 +10077,13 @@
         <v>1</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>168</v>
+        <v>795</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1674</v>
+        <v>2302</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>983</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -10100,10 +10094,10 @@
         <v>796</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1487</v>
+        <v>983</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -10111,13 +10105,13 @@
         <v>1</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>797</v>
+        <v>169</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>2305</v>
+        <v>1674</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -10125,13 +10119,13 @@
         <v>1</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>169</v>
+        <v>797</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1675</v>
+        <v>2304</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>984</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -10139,13 +10133,13 @@
         <v>1</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>798</v>
+        <v>170</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>2306</v>
+        <v>1675</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>1488</v>
+        <v>984</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -10153,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>1676</v>
@@ -10167,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>1677</v>
@@ -10181,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>1678</v>
@@ -10195,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>1679</v>
@@ -10209,7 +10203,7 @@
         <v>1</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>1680</v>
@@ -10223,7 +10217,7 @@
         <v>1</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>1681</v>
@@ -10237,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>1682</v>
@@ -10251,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>1683</v>
@@ -10265,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>1684</v>
@@ -10279,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>1685</v>
@@ -10293,7 +10287,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>1686</v>
@@ -10307,7 +10301,7 @@
         <v>1</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>1687</v>
@@ -10321,10 +10315,10 @@
         <v>1</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>182</v>
+        <v>798</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1688</v>
+        <v>2305</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>997</v>
@@ -10335,13 +10329,13 @@
         <v>1</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>799</v>
+        <v>183</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>2307</v>
+        <v>1688</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -10349,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1689</v>
@@ -10363,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>1690</v>
@@ -10377,13 +10371,13 @@
         <v>1</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>1691</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>1000</v>
+        <v>856</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -10391,13 +10385,13 @@
         <v>1</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>1692</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>857</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -10405,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>1693</v>
@@ -10419,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>1694</v>
@@ -10433,13 +10427,13 @@
         <v>1</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>1695</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1003</v>
+        <v>927</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -10447,13 +10441,13 @@
         <v>1</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>1696</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>928</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -10461,13 +10455,13 @@
         <v>1</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>191</v>
+        <v>799</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>1697</v>
+        <v>2306</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1004</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -10475,13 +10469,13 @@
         <v>1</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>800</v>
+        <v>193</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>2308</v>
+        <v>1698</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1489</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -10489,13 +10483,13 @@
         <v>1</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -10503,13 +10497,13 @@
         <v>1</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -10517,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>1700</v>
@@ -10531,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>1701</v>
@@ -10545,7 +10539,7 @@
         <v>1</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>1702</v>
@@ -10559,13 +10553,13 @@
         <v>1</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>197</v>
+        <v>800</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1703</v>
+        <v>2307</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>1010</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -10573,13 +10567,13 @@
         <v>1</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>801</v>
+        <v>198</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>2309</v>
+        <v>1703</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>1490</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -10587,13 +10581,13 @@
         <v>1</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>1704</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>1011</v>
+        <v>832</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -10601,13 +10595,13 @@
         <v>1</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>1705</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>833</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -10615,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>1706</v>
@@ -10629,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>1707</v>
@@ -10643,7 +10637,7 @@
         <v>1</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>1708</v>
@@ -10657,13 +10651,13 @@
         <v>1</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>203</v>
+        <v>801</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1709</v>
+        <v>2308</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1015</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -10671,13 +10665,13 @@
         <v>1</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>802</v>
+        <v>204</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>2310</v>
+        <v>1709</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1491</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -10685,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>1710</v>
@@ -10699,13 +10693,13 @@
         <v>1</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>205</v>
+        <v>802</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1711</v>
+        <v>2309</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1017</v>
+        <v>802</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -10713,13 +10707,13 @@
         <v>1</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>803</v>
+        <v>206</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>2311</v>
+        <v>1711</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>803</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -10727,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>1712</v>
@@ -10741,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>1713</v>
@@ -10755,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>1714</v>
@@ -10769,7 +10763,7 @@
         <v>1</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>1715</v>
@@ -10783,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>1716</v>
@@ -10797,7 +10791,7 @@
         <v>1</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>1717</v>
@@ -10811,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>1718</v>
@@ -10825,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>1719</v>
@@ -10839,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>1720</v>
@@ -10853,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>1721</v>
@@ -10867,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>1722</v>
@@ -10881,13 +10875,13 @@
         <v>1</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>217</v>
+        <v>804</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1723</v>
+        <v>2311</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1029</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -10895,13 +10889,13 @@
         <v>1</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>2313</v>
+        <v>2310</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1492</v>
+        <v>803</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -10909,13 +10903,13 @@
         <v>1</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>804</v>
+        <v>218</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>2312</v>
+        <v>1723</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>804</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -10923,13 +10917,13 @@
         <v>1</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>218</v>
+        <v>805</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1724</v>
+        <v>2312</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1030</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -10937,13 +10931,13 @@
         <v>1</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>806</v>
+        <v>219</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>2314</v>
+        <v>1724</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1493</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -10951,13 +10945,13 @@
         <v>1</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>219</v>
+        <v>806</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1725</v>
+        <v>2313</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1031</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -10965,13 +10959,13 @@
         <v>1</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>807</v>
+        <v>220</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>2315</v>
+        <v>1725</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1494</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -10979,7 +10973,7 @@
         <v>1</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>1726</v>
@@ -10993,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>1727</v>
@@ -11007,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>1728</v>
@@ -11021,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>1729</v>
@@ -11035,7 +11029,7 @@
         <v>1</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>1730</v>
@@ -11049,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>1731</v>
@@ -11063,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1732</v>
@@ -11077,13 +11071,13 @@
         <v>1</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>227</v>
+        <v>807</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1733</v>
+        <v>2314</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1039</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -11094,7 +11088,7 @@
         <v>808</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>1495</v>
@@ -11108,7 +11102,7 @@
         <v>809</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>1496</v>
@@ -11119,13 +11113,13 @@
         <v>1</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>810</v>
+        <v>228</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>2318</v>
+        <v>1733</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1497</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -11133,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>1734</v>
@@ -11147,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>1735</v>
@@ -11161,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>1736</v>
@@ -11175,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>1737</v>
@@ -11189,7 +11183,7 @@
         <v>1</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>1738</v>
@@ -11203,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>1739</v>
@@ -11217,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>1740</v>
@@ -11231,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>1741</v>
@@ -11245,13 +11239,13 @@
         <v>1</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>236</v>
+        <v>810</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1742</v>
+        <v>2317</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1048</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -11259,13 +11253,13 @@
         <v>1</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>811</v>
+        <v>237</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>2319</v>
+        <v>1742</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1498</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -11273,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>1743</v>
@@ -11287,7 +11281,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>1744</v>
@@ -11301,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>1745</v>
@@ -11315,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>1746</v>
@@ -11329,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>1747</v>
@@ -11343,7 +11337,7 @@
         <v>1</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>1748</v>
@@ -11357,13 +11351,13 @@
         <v>1</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>243</v>
+        <v>811</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>1749</v>
+        <v>2318</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -11371,13 +11365,13 @@
         <v>1</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>812</v>
+        <v>244</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>2320</v>
+        <v>1749</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -11385,13 +11379,13 @@
         <v>1</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>244</v>
+        <v>812</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>1750</v>
+        <v>2319</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1056</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -11402,7 +11396,7 @@
         <v>813</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>1499</v>
@@ -11416,7 +11410,7 @@
         <v>814</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>1500</v>
@@ -11427,13 +11421,13 @@
         <v>1</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>815</v>
+        <v>245</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>2323</v>
+        <v>1750</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1501</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -11441,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>1751</v>
@@ -11455,7 +11449,7 @@
         <v>1</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>1752</v>
@@ -11469,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>1753</v>
@@ -11483,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>1754</v>
@@ -11497,13 +11491,13 @@
         <v>1</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>249</v>
+        <v>815</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1755</v>
+        <v>2322</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1061</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -11511,13 +11505,13 @@
         <v>1</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>816</v>
+        <v>250</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>2324</v>
+        <v>1755</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>1502</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -11525,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>1756</v>
@@ -11539,13 +11533,13 @@
         <v>1</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>251</v>
+        <v>816</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1757</v>
+        <v>2323</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1063</v>
+        <v>816</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -11553,13 +11547,13 @@
         <v>1</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>817</v>
+        <v>252</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>2325</v>
+        <v>1757</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>817</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -11567,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>1758</v>
@@ -11581,7 +11575,7 @@
         <v>1</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>1759</v>
@@ -11595,13 +11589,13 @@
         <v>1</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>1760</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1066</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -11609,13 +11603,13 @@
         <v>1</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>1761</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>2336</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -11623,7 +11617,7 @@
         <v>1</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>1762</v>
@@ -11637,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>1763</v>
@@ -11651,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>1764</v>
@@ -11665,13 +11659,13 @@
         <v>1</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>259</v>
+        <v>817</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1765</v>
+        <v>2324</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>1070</v>
+        <v>817</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -11682,10 +11676,10 @@
         <v>818</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>818</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -11693,13 +11687,13 @@
         <v>1</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>819</v>
+        <v>260</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>2327</v>
+        <v>1765</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1503</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -11707,7 +11701,7 @@
         <v>1</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>1766</v>
@@ -11721,13 +11715,13 @@
         <v>1</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>1767</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1072</v>
+        <v>923</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -11735,13 +11729,13 @@
         <v>1</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>1768</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>924</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -11749,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>1769</v>
@@ -11763,13 +11757,13 @@
         <v>1</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>264</v>
+        <v>819</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1770</v>
+        <v>2326</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>1074</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -11780,7 +11774,7 @@
         <v>820</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>1504</v>
@@ -11791,13 +11785,13 @@
         <v>1</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>821</v>
+        <v>265</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>2329</v>
+        <v>1770</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>1505</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -11805,13 +11799,13 @@
         <v>1</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>1771</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1075</v>
+        <v>858</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -11819,13 +11813,13 @@
         <v>1</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>1772</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>859</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -11833,7 +11827,7 @@
         <v>1</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>1773</v>
@@ -11847,13 +11841,13 @@
         <v>1</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>268</v>
+        <v>821</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>1774</v>
+        <v>2328</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1077</v>
+        <v>821</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -11861,13 +11855,13 @@
         <v>1</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>822</v>
+        <v>269</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>2330</v>
+        <v>1774</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>822</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -11875,7 +11869,7 @@
         <v>1</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>1775</v>
@@ -11889,7 +11883,7 @@
         <v>1</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>1776</v>
@@ -11903,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>1777</v>
@@ -11917,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>1778</v>
@@ -11931,13 +11925,13 @@
         <v>1</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>1779</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1082</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -11945,13 +11939,13 @@
         <v>1</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>1780</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -11959,13 +11953,13 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>1781</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1052</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -11973,7 +11967,7 @@
         <v>1</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>1782</v>
@@ -11987,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>1783</v>
@@ -12001,13 +11995,13 @@
         <v>1</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>278</v>
+        <v>822</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1784</v>
+        <v>2329</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1085</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -12015,13 +12009,13 @@
         <v>1</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>823</v>
+        <v>279</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>2331</v>
+        <v>1784</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1506</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -12029,7 +12023,7 @@
         <v>1</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>1785</v>
@@ -12043,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>1786</v>
@@ -12057,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>1787</v>
@@ -12071,13 +12065,13 @@
         <v>1</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>282</v>
+        <v>823</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>1788</v>
+        <v>2330</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1089</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -12085,13 +12079,13 @@
         <v>1</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>824</v>
+        <v>283</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>2332</v>
+        <v>1788</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1507</v>
+        <v>283</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -12099,13 +12093,13 @@
         <v>1</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>1789</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>283</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -12113,7 +12107,7 @@
         <v>1</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>1790</v>
@@ -12127,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>1791</v>
@@ -12141,13 +12135,13 @@
         <v>1</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>286</v>
+        <v>824</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>1792</v>
+        <v>2331</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>1092</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -12155,13 +12149,13 @@
         <v>1</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>825</v>
+        <v>287</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>2333</v>
+        <v>1792</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>1508</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -12169,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>1793</v>
@@ -12183,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>1794</v>
@@ -12197,13 +12191,13 @@
         <v>1</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>289</v>
+        <v>2333</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>1795</v>
+        <v>1518</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>1095</v>
+        <v>833</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -12211,13 +12205,13 @@
         <v>1</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>2335</v>
+        <v>825</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>1519</v>
+        <v>2332</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>834</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -12225,13 +12219,13 @@
         <v>1</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>826</v>
+        <v>290</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>2334</v>
+        <v>1795</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1509</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -12239,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>1796</v>
@@ -12253,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>1797</v>
@@ -12267,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>1798</v>
@@ -12281,7 +12275,7 @@
         <v>1</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>1799</v>
@@ -12295,7 +12289,7 @@
         <v>1</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>1800</v>
@@ -12309,7 +12303,7 @@
         <v>1</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>1801</v>
@@ -12323,27 +12317,27 @@
         <v>1</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>1802</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1102</v>
+        <v>297</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>1803</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -12351,13 +12345,13 @@
         <v>2</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>1804</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -12365,13 +12359,13 @@
         <v>2</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>1805</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>299</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -12379,7 +12373,7 @@
         <v>2</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>1806</v>
@@ -12393,13 +12387,13 @@
         <v>2</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>1807</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1104</v>
+        <v>302</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -12407,13 +12401,13 @@
         <v>2</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>1808</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>302</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -12421,7 +12415,7 @@
         <v>2</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>1809</v>
@@ -12435,7 +12429,7 @@
         <v>2</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>1810</v>
@@ -12449,7 +12443,7 @@
         <v>2</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>1811</v>
@@ -12463,13 +12457,13 @@
         <v>2</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>1812</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>1108</v>
+        <v>307</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -12477,13 +12471,13 @@
         <v>2</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>1813</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>307</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -12491,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>1814</v>
@@ -12505,7 +12499,7 @@
         <v>2</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>1815</v>
@@ -12519,7 +12513,7 @@
         <v>2</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>1816</v>
@@ -12533,7 +12527,7 @@
         <v>2</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>1817</v>
@@ -12547,7 +12541,7 @@
         <v>2</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>1818</v>
@@ -12561,7 +12555,7 @@
         <v>2</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>1819</v>
@@ -12575,7 +12569,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>1820</v>
@@ -12589,7 +12583,7 @@
         <v>2</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>1821</v>
@@ -12603,7 +12597,7 @@
         <v>2</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>1822</v>
@@ -12617,7 +12611,7 @@
         <v>2</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>1823</v>
@@ -12631,7 +12625,7 @@
         <v>2</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>1824</v>
@@ -12645,7 +12639,7 @@
         <v>2</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>1825</v>
@@ -12659,7 +12653,7 @@
         <v>2</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>1826</v>
@@ -12673,7 +12667,7 @@
         <v>2</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>1827</v>
@@ -12687,13 +12681,13 @@
         <v>2</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>1828</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>1123</v>
+        <v>323</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -12701,13 +12695,13 @@
         <v>2</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>1829</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -12715,13 +12709,13 @@
         <v>2</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>1830</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -12729,13 +12723,13 @@
         <v>2</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>1831</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -12743,13 +12737,13 @@
         <v>2</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>1832</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -12757,13 +12751,13 @@
         <v>2</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>1833</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -12771,13 +12765,13 @@
         <v>2</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>1834</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>328</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -12785,7 +12779,7 @@
         <v>2</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>1835</v>
@@ -12799,7 +12793,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>1836</v>
@@ -12813,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>1837</v>
@@ -12827,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>1838</v>
@@ -12841,7 +12835,7 @@
         <v>2</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>1839</v>
@@ -12855,13 +12849,13 @@
         <v>2</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>1840</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1129</v>
+        <v>335</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -12869,13 +12863,13 @@
         <v>2</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>1841</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>335</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -12883,13 +12877,13 @@
         <v>2</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>1842</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>1130</v>
+        <v>337</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -12897,13 +12891,13 @@
         <v>2</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>1843</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>337</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -12911,7 +12905,7 @@
         <v>2</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>1844</v>
@@ -12925,7 +12919,7 @@
         <v>2</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>1845</v>
@@ -12939,7 +12933,7 @@
         <v>2</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>1846</v>
@@ -12953,7 +12947,7 @@
         <v>2</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>1847</v>
@@ -12967,13 +12961,13 @@
         <v>2</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>1848</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>1135</v>
+        <v>343</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -12981,13 +12975,13 @@
         <v>2</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>1849</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>343</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -12995,7 +12989,7 @@
         <v>2</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>1850</v>
@@ -13009,7 +13003,7 @@
         <v>2</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>1851</v>
@@ -13023,7 +13017,7 @@
         <v>2</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>1852</v>
@@ -13037,13 +13031,13 @@
         <v>2</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>1853</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1139</v>
+        <v>348</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -13051,13 +13045,13 @@
         <v>2</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>1854</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -13065,13 +13059,13 @@
         <v>2</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>1855</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>349</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -13079,7 +13073,7 @@
         <v>2</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>1856</v>
@@ -13093,7 +13087,7 @@
         <v>2</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>1857</v>
@@ -13107,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>1858</v>
@@ -13121,7 +13115,7 @@
         <v>2</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>1859</v>
@@ -13135,13 +13129,13 @@
         <v>2</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>1860</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>1144</v>
+        <v>355</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -13149,13 +13143,13 @@
         <v>2</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>1861</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -13163,13 +13157,13 @@
         <v>2</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>1862</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -13177,13 +13171,13 @@
         <v>2</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>1863</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -13191,13 +13185,13 @@
         <v>2</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>1864</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>358</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -13205,13 +13199,13 @@
         <v>2</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>1865</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>1145</v>
+        <v>360</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -13219,13 +13213,13 @@
         <v>2</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>1866</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -13233,13 +13227,13 @@
         <v>2</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>1867</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>361</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -13247,13 +13241,13 @@
         <v>2</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>1868</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>1146</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -13261,13 +13255,13 @@
         <v>2</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>1869</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>363</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -13275,13 +13269,13 @@
         <v>2</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>1870</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>1147</v>
+        <v>365</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -13289,13 +13283,13 @@
         <v>2</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>1871</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>365</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -13303,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>1872</v>
@@ -13317,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>1873</v>
@@ -13331,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>1874</v>
@@ -13345,13 +13339,13 @@
         <v>2</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>1875</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>1151</v>
+        <v>370</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -13359,13 +13353,13 @@
         <v>2</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>1876</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -13373,13 +13367,13 @@
         <v>2</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>1877</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -13387,13 +13381,13 @@
         <v>2</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>1878</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -13401,13 +13395,13 @@
         <v>2</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>1879</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -13415,13 +13409,13 @@
         <v>2</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>1880</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -13429,13 +13423,13 @@
         <v>2</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>1881</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>375</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -13443,7 +13437,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>1882</v>
@@ -13457,13 +13451,13 @@
         <v>2</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>1883</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>1153</v>
+        <v>378</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -13471,13 +13465,13 @@
         <v>2</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>1884</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>378</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -13485,7 +13479,7 @@
         <v>2</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>1885</v>
@@ -13499,13 +13493,13 @@
         <v>2</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>1886</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>1155</v>
+        <v>381</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -13513,13 +13507,13 @@
         <v>2</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>1887</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -13527,13 +13521,13 @@
         <v>2</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>1888</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>382</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -13541,13 +13535,13 @@
         <v>2</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>1889</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>1156</v>
+        <v>384</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -13555,13 +13549,13 @@
         <v>2</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>1890</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -13569,13 +13563,13 @@
         <v>2</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>1891</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -13583,13 +13577,13 @@
         <v>2</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>1892</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>386</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -13597,27 +13591,27 @@
         <v>2</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>1893</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1157</v>
+        <v>388</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>388</v>
+        <v>712</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1894</v>
+        <v>2219</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>388</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -13625,13 +13619,13 @@
         <v>3</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>712</v>
+        <v>389</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>2220</v>
+        <v>1894</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1429</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -13639,13 +13633,13 @@
         <v>3</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>1895</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>1158</v>
+        <v>390</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -13653,13 +13647,13 @@
         <v>3</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>390</v>
+        <v>713</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1896</v>
+        <v>2220</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>390</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -13667,13 +13661,13 @@
         <v>3</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>713</v>
+        <v>391</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>2221</v>
+        <v>1896</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>1430</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -13681,13 +13675,13 @@
         <v>3</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>391</v>
+        <v>714</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1897</v>
+        <v>2221</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>1159</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -13695,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>2222</v>
@@ -13709,7 +13703,7 @@
         <v>3</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>2223</v>
@@ -13723,7 +13717,7 @@
         <v>3</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>2224</v>
@@ -13737,7 +13731,7 @@
         <v>3</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>2225</v>
@@ -13751,13 +13745,13 @@
         <v>3</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>718</v>
+        <v>392</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>2226</v>
+        <v>1897</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>1435</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -13765,7 +13759,7 @@
         <v>3</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>1898</v>
@@ -13779,7 +13773,7 @@
         <v>3</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>1899</v>
@@ -13793,13 +13787,13 @@
         <v>3</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>1162</v>
+        <v>396</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -13807,13 +13801,13 @@
         <v>3</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>1902</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>396</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -13821,13 +13815,13 @@
         <v>3</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>1903</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>1163</v>
+        <v>398</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -13835,13 +13829,13 @@
         <v>3</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>398</v>
+        <v>719</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>1904</v>
+        <v>2226</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>398</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -13849,13 +13843,13 @@
         <v>3</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>719</v>
+        <v>395</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>2227</v>
+        <v>1900</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>1436</v>
+        <v>395</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -13863,13 +13857,13 @@
         <v>3</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>395</v>
+        <v>721</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1901</v>
+        <v>2228</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>395</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -13877,13 +13871,13 @@
         <v>3</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>721</v>
+        <v>399</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>2229</v>
+        <v>1904</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>1437</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -13891,13 +13885,13 @@
         <v>3</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>399</v>
+        <v>720</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1905</v>
+        <v>2227</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>1164</v>
+        <v>720</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -13905,13 +13899,13 @@
         <v>3</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>720</v>
+        <v>400</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>2228</v>
+        <v>1905</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>720</v>
+        <v>400</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -13919,13 +13913,13 @@
         <v>3</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>400</v>
+        <v>723</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1906</v>
+        <v>2230</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>400</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -13933,13 +13927,13 @@
         <v>3</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>1438</v>
+        <v>722</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -13947,13 +13941,13 @@
         <v>3</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>722</v>
+        <v>404</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>2230</v>
+        <v>1909</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>722</v>
+        <v>404</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -13961,13 +13955,13 @@
         <v>3</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -13975,13 +13969,13 @@
         <v>3</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>401</v>
+        <v>724</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>1907</v>
+        <v>2231</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>401</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -13989,7 +13983,7 @@
         <v>3</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>2232</v>
@@ -14003,7 +13997,7 @@
         <v>3</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>2233</v>
@@ -14017,13 +14011,13 @@
         <v>3</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>726</v>
+        <v>402</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>2234</v>
+        <v>1907</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1441</v>
+        <v>402</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -14031,13 +14025,13 @@
         <v>3</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>1908</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -14045,13 +14039,13 @@
         <v>3</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>403</v>
+        <v>727</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1909</v>
+        <v>2234</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>403</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -14059,13 +14053,13 @@
         <v>3</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>727</v>
+        <v>405</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>2235</v>
+        <v>1910</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1442</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -14073,7 +14067,7 @@
         <v>3</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>1911</v>
@@ -14087,7 +14081,7 @@
         <v>3</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>1912</v>
@@ -14101,13 +14095,13 @@
         <v>3</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>407</v>
+        <v>728</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1913</v>
+        <v>2235</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>1167</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -14115,13 +14109,13 @@
         <v>3</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>728</v>
+        <v>408</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>2236</v>
+        <v>1913</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>1443</v>
+        <v>408</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -14129,13 +14123,13 @@
         <v>3</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>1914</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -14143,13 +14137,13 @@
         <v>3</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>409</v>
+        <v>729</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>1915</v>
+        <v>2236</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>409</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -14157,13 +14151,13 @@
         <v>3</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>729</v>
+        <v>410</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>2237</v>
+        <v>1915</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>1444</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -14171,13 +14165,13 @@
         <v>3</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>410</v>
+        <v>730</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>1916</v>
+        <v>2237</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>1168</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -14185,13 +14179,13 @@
         <v>3</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>730</v>
+        <v>411</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>2238</v>
+        <v>1916</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>1445</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -14199,13 +14193,13 @@
         <v>3</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>1917</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>1169</v>
+        <v>412</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -14213,13 +14207,13 @@
         <v>3</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>412</v>
+        <v>732</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1918</v>
+        <v>2239</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>412</v>
+        <v>732</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -14227,13 +14221,13 @@
         <v>3</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>2240</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>732</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -14241,13 +14235,13 @@
         <v>3</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -14255,13 +14249,13 @@
         <v>3</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>731</v>
+        <v>413</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>2239</v>
+        <v>1918</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>1446</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -14269,7 +14263,7 @@
         <v>3</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>1919</v>
@@ -14283,13 +14277,13 @@
         <v>3</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>1920</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>1171</v>
+        <v>415</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -14297,13 +14291,13 @@
         <v>3</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>415</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -14311,13 +14305,13 @@
         <v>3</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>418</v>
+        <v>734</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1924</v>
+        <v>2241</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>1174</v>
+        <v>734</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -14325,13 +14319,13 @@
         <v>3</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>734</v>
+        <v>419</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2242</v>
+        <v>1924</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>734</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -14339,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>1925</v>
@@ -14353,13 +14347,13 @@
         <v>3</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -14367,13 +14361,13 @@
         <v>3</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>416</v>
+        <v>735</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1922</v>
+        <v>2242</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>1172</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -14381,13 +14375,13 @@
         <v>3</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>735</v>
+        <v>417</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>2243</v>
+        <v>1922</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>1448</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -14395,13 +14389,13 @@
         <v>3</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>1173</v>
+        <v>421</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -14409,13 +14403,13 @@
         <v>3</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>421</v>
+        <v>736</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1927</v>
+        <v>2243</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>421</v>
+        <v>736</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -14423,13 +14417,13 @@
         <v>3</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>2244</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -14437,13 +14431,13 @@
         <v>3</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>737</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -14451,13 +14445,13 @@
         <v>3</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>1449</v>
+        <v>738</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -14465,13 +14459,13 @@
         <v>3</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>738</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -14479,13 +14473,13 @@
         <v>3</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>740</v>
+        <v>422</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2248</v>
+        <v>1927</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>1450</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -14493,13 +14487,13 @@
         <v>3</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>422</v>
+        <v>741</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1928</v>
+        <v>2248</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>1177</v>
+        <v>741</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -14507,13 +14501,13 @@
         <v>3</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>741</v>
+        <v>423</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2249</v>
+        <v>1928</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>741</v>
+        <v>423</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -14521,13 +14515,13 @@
         <v>3</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>1929</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>423</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -14535,13 +14529,13 @@
         <v>3</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>1930</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>1178</v>
+        <v>425</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -14549,13 +14543,13 @@
         <v>3</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>1931</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>425</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -14563,13 +14557,13 @@
         <v>3</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>1179</v>
+        <v>429</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -14577,13 +14571,13 @@
         <v>3</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>429</v>
+        <v>742</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1935</v>
+        <v>2249</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>429</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -14591,13 +14585,13 @@
         <v>3</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>742</v>
+        <v>427</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2250</v>
+        <v>1932</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>1451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -14605,13 +14599,13 @@
         <v>3</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>1933</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -14619,13 +14613,13 @@
         <v>3</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>428</v>
+        <v>743</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1934</v>
+        <v>2250</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>428</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -14633,7 +14627,7 @@
         <v>3</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>2251</v>
@@ -14647,7 +14641,7 @@
         <v>3</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>2252</v>
@@ -14661,13 +14655,13 @@
         <v>3</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>745</v>
+        <v>430</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2253</v>
+        <v>1935</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1454</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -14675,13 +14669,13 @@
         <v>3</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>430</v>
+        <v>746</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1936</v>
+        <v>2253</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>1180</v>
+        <v>746</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -14689,13 +14683,13 @@
         <v>3</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>746</v>
+        <v>431</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2254</v>
+        <v>1936</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>746</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -14703,13 +14697,13 @@
         <v>3</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>431</v>
+        <v>747</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1937</v>
+        <v>2254</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1181</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -14717,13 +14711,13 @@
         <v>3</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>747</v>
+        <v>432</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>2255</v>
+        <v>1937</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1455</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -14731,13 +14725,13 @@
         <v>3</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>432</v>
+        <v>751</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1938</v>
+        <v>2258</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>1182</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -14745,7 +14739,7 @@
         <v>3</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>2259</v>
@@ -14759,13 +14753,13 @@
         <v>3</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>752</v>
+        <v>433</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>2260</v>
+        <v>1938</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>1457</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -14773,13 +14767,13 @@
         <v>3</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>433</v>
+        <v>748</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1939</v>
+        <v>2255</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>1183</v>
+        <v>748</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -14787,13 +14781,13 @@
         <v>3</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>748</v>
+        <v>434</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>2256</v>
+        <v>1939</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>748</v>
+        <v>434</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -14801,13 +14795,13 @@
         <v>3</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>1940</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>434</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -14815,13 +14809,13 @@
         <v>3</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>435</v>
+        <v>753</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1941</v>
+        <v>2260</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>1184</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -14829,7 +14823,7 @@
         <v>3</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>2261</v>
@@ -14843,13 +14837,13 @@
         <v>3</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>754</v>
+        <v>436</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>2262</v>
+        <v>1941</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>1459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -14857,13 +14851,13 @@
         <v>3</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>436</v>
+        <v>755</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>1942</v>
+        <v>2262</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>436</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -14871,7 +14865,7 @@
         <v>3</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>2263</v>
@@ -14885,13 +14879,13 @@
         <v>3</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>2264</v>
+        <v>2256</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>1461</v>
+        <v>749</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -14899,13 +14893,13 @@
         <v>3</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>749</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -14913,13 +14907,13 @@
         <v>3</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>757</v>
+        <v>437</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2265</v>
+        <v>1942</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>1462</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -14927,13 +14921,13 @@
         <v>3</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>437</v>
+        <v>758</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1943</v>
+        <v>2265</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1185</v>
+        <v>758</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -14941,13 +14935,13 @@
         <v>3</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>2266</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>758</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -14955,13 +14949,13 @@
         <v>3</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>2267</v>
+        <v>2257</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1463</v>
+        <v>750</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -14969,13 +14963,13 @@
         <v>3</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2258</v>
+        <v>2267</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>750</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -14983,13 +14977,13 @@
         <v>3</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>760</v>
+        <v>438</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>2268</v>
+        <v>1943</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>1464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -14997,13 +14991,13 @@
         <v>3</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>1944</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -15011,13 +15005,13 @@
         <v>3</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1945</v>
+        <v>2268</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>439</v>
+        <v>761</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -15025,13 +15019,13 @@
         <v>3</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>761</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -15039,7 +15033,7 @@
         <v>3</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>2271</v>
@@ -15053,7 +15047,7 @@
         <v>3</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>2272</v>
@@ -15067,13 +15061,13 @@
         <v>3</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>1467</v>
+        <v>762</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -15081,13 +15075,13 @@
         <v>3</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>762</v>
+        <v>440</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>2270</v>
+        <v>1945</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>762</v>
+        <v>440</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -15095,13 +15089,13 @@
         <v>3</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>440</v>
+        <v>766</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1946</v>
+        <v>2273</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>440</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -15109,13 +15103,13 @@
         <v>3</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>766</v>
+        <v>441</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>2274</v>
+        <v>1946</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>1468</v>
+        <v>441</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -15123,13 +15117,13 @@
         <v>3</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>1947</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -15137,13 +15131,13 @@
         <v>3</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>1948</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -15151,13 +15145,13 @@
         <v>3</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>443</v>
+        <v>767</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>1949</v>
+        <v>2274</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>443</v>
+        <v>767</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -15165,13 +15159,13 @@
         <v>3</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>2275</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -15179,13 +15173,13 @@
         <v>3</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>768</v>
+        <v>444</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>2276</v>
+        <v>1949</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>768</v>
+        <v>444</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -15193,13 +15187,13 @@
         <v>3</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>1950</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -15207,27 +15201,27 @@
         <v>3</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>445</v>
+        <v>769</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>1951</v>
+        <v>2276</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>445</v>
+        <v>769</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>769</v>
+        <v>446</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>2277</v>
+        <v>1951</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>769</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -15235,7 +15229,7 @@
         <v>4</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>1952</v>
@@ -15249,7 +15243,7 @@
         <v>4</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>1953</v>
@@ -15263,7 +15257,7 @@
         <v>4</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>1954</v>
@@ -15277,7 +15271,7 @@
         <v>4</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>1955</v>
@@ -15291,7 +15285,7 @@
         <v>4</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>1956</v>
@@ -15305,7 +15299,7 @@
         <v>4</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>1957</v>
@@ -15319,7 +15313,7 @@
         <v>4</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>1958</v>
@@ -15333,7 +15327,7 @@
         <v>4</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>1959</v>
@@ -15347,7 +15341,7 @@
         <v>4</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>1960</v>
@@ -15361,7 +15355,7 @@
         <v>4</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>1961</v>
@@ -15375,7 +15369,7 @@
         <v>4</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>1962</v>
@@ -15389,13 +15383,13 @@
         <v>4</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>1963</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>1197</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -15403,13 +15397,13 @@
         <v>4</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>1964</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>1159</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -15417,7 +15411,7 @@
         <v>4</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>1965</v>
@@ -15431,13 +15425,13 @@
         <v>4</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>1966</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>1199</v>
+        <v>881</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -15445,13 +15439,13 @@
         <v>4</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>1967</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>882</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -15459,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>1968</v>
@@ -15473,7 +15467,7 @@
         <v>4</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>1969</v>
@@ -15487,7 +15481,7 @@
         <v>4</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>1970</v>
@@ -15501,7 +15495,7 @@
         <v>4</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>1971</v>
@@ -15515,7 +15509,7 @@
         <v>4</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>1972</v>
@@ -15529,7 +15523,7 @@
         <v>4</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>1973</v>
@@ -15543,7 +15537,7 @@
         <v>4</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>1974</v>
@@ -15557,7 +15551,7 @@
         <v>4</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>1975</v>
@@ -15571,13 +15565,13 @@
         <v>4</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>1976</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1208</v>
+        <v>899</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -15585,13 +15579,13 @@
         <v>4</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>1977</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>900</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -15599,13 +15593,13 @@
         <v>4</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>1978</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1160</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -15613,13 +15607,13 @@
         <v>4</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>1979</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1072</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -15627,7 +15621,7 @@
         <v>4</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>1980</v>
@@ -15641,7 +15635,7 @@
         <v>4</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>1981</v>
@@ -15655,7 +15649,7 @@
         <v>4</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>1982</v>
@@ -15669,7 +15663,7 @@
         <v>4</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>1983</v>
@@ -15683,7 +15677,7 @@
         <v>4</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>1984</v>
@@ -15697,7 +15691,7 @@
         <v>4</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>1985</v>
@@ -15711,7 +15705,7 @@
         <v>4</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>1986</v>
@@ -15725,7 +15719,7 @@
         <v>4</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>1987</v>
@@ -15739,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>1988</v>
@@ -15753,7 +15747,7 @@
         <v>4</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>1989</v>
@@ -15767,7 +15761,7 @@
         <v>4</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>1990</v>
@@ -15781,7 +15775,7 @@
         <v>4</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>1991</v>
@@ -15795,7 +15789,7 @@
         <v>4</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>1992</v>
@@ -15809,7 +15803,7 @@
         <v>4</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>1993</v>
@@ -15823,7 +15817,7 @@
         <v>4</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>1994</v>
@@ -15837,7 +15831,7 @@
         <v>4</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>1995</v>
@@ -15851,7 +15845,7 @@
         <v>4</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>1996</v>
@@ -15865,7 +15859,7 @@
         <v>4</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>1997</v>
@@ -15879,7 +15873,7 @@
         <v>4</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>1998</v>
@@ -15893,7 +15887,7 @@
         <v>4</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>1999</v>
@@ -15907,7 +15901,7 @@
         <v>4</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>2000</v>
@@ -15921,7 +15915,7 @@
         <v>4</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>2001</v>
@@ -15935,7 +15929,7 @@
         <v>4</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>2002</v>
@@ -15949,7 +15943,7 @@
         <v>4</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>2003</v>
@@ -15963,13 +15957,13 @@
         <v>4</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>2004</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1233</v>
+        <v>499</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.3">
@@ -15977,13 +15971,13 @@
         <v>4</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>2005</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.3">
@@ -15991,13 +15985,13 @@
         <v>4</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>2006</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>500</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.3">
@@ -16005,7 +15999,7 @@
         <v>4</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>2007</v>
@@ -16019,7 +16013,7 @@
         <v>4</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>2008</v>
@@ -16033,13 +16027,13 @@
         <v>4</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>2009</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1236</v>
+        <v>917</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.3">
@@ -16047,13 +16041,13 @@
         <v>4</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>2010</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>918</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
@@ -16061,7 +16055,7 @@
         <v>4</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>2011</v>
@@ -16075,7 +16069,7 @@
         <v>4</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>2012</v>
@@ -16089,7 +16083,7 @@
         <v>4</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>2013</v>
@@ -16103,7 +16097,7 @@
         <v>4</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>2014</v>
@@ -16117,7 +16111,7 @@
         <v>4</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>2015</v>
@@ -16131,7 +16125,7 @@
         <v>4</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>2016</v>
@@ -16145,7 +16139,7 @@
         <v>4</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>2017</v>
@@ -16159,7 +16153,7 @@
         <v>4</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>2018</v>
@@ -16173,7 +16167,7 @@
         <v>4</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>2019</v>
@@ -16187,7 +16181,7 @@
         <v>4</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>2020</v>
@@ -16201,7 +16195,7 @@
         <v>4</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>2021</v>
@@ -16215,7 +16209,7 @@
         <v>4</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>2022</v>
@@ -16229,7 +16223,7 @@
         <v>4</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>2023</v>
@@ -16243,7 +16237,7 @@
         <v>4</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>2024</v>
@@ -16257,7 +16251,7 @@
         <v>4</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>2025</v>
@@ -16271,7 +16265,7 @@
         <v>4</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>2026</v>
@@ -16285,7 +16279,7 @@
         <v>4</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>2027</v>
@@ -16299,7 +16293,7 @@
         <v>4</v>
       </c>
       <c r="B635" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>2028</v>
@@ -16313,7 +16307,7 @@
         <v>4</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>2029</v>
@@ -16327,7 +16321,7 @@
         <v>4</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>2030</v>
@@ -16341,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>2031</v>
@@ -16355,7 +16349,7 @@
         <v>4</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>2032</v>
@@ -16369,7 +16363,7 @@
         <v>4</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>2033</v>
@@ -16383,7 +16377,7 @@
         <v>4</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>2034</v>
@@ -16397,7 +16391,7 @@
         <v>4</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>2035</v>
@@ -16411,7 +16405,7 @@
         <v>4</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>2036</v>
@@ -16425,7 +16419,7 @@
         <v>4</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>2037</v>
@@ -16439,7 +16433,7 @@
         <v>4</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>2038</v>
@@ -16453,7 +16447,7 @@
         <v>4</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>2039</v>
@@ -16467,13 +16461,13 @@
         <v>4</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>2040</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1266</v>
+        <v>535</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -16481,13 +16475,13 @@
         <v>4</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>2041</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>535</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -16495,7 +16489,7 @@
         <v>4</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>2042</v>
@@ -16509,7 +16503,7 @@
         <v>4</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>2043</v>
@@ -16523,7 +16517,7 @@
         <v>4</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>2044</v>
@@ -16537,7 +16531,7 @@
         <v>4</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>2045</v>
@@ -16551,7 +16545,7 @@
         <v>4</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>2046</v>
@@ -16565,13 +16559,13 @@
         <v>4</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>2047</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>1272</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -16579,13 +16573,13 @@
         <v>4</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>2048</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>1171</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -16593,7 +16587,7 @@
         <v>4</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>2049</v>
@@ -16607,13 +16601,13 @@
         <v>4</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>2050</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>1274</v>
+        <v>545</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -16621,13 +16615,13 @@
         <v>4</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>2051</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>545</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -16635,7 +16629,7 @@
         <v>4</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>2052</v>
@@ -16649,7 +16643,7 @@
         <v>4</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>2053</v>
@@ -16663,7 +16657,7 @@
         <v>4</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>2054</v>
@@ -16677,7 +16671,7 @@
         <v>4</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>2055</v>
@@ -16691,13 +16685,13 @@
         <v>4</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>550</v>
+        <v>198</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>2056</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>1279</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.3">
@@ -16705,13 +16699,13 @@
         <v>4</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>2057</v>
       </c>
       <c r="D664" s="2" t="s">
-        <v>1011</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -16719,7 +16713,7 @@
         <v>4</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>2058</v>
@@ -16733,7 +16727,7 @@
         <v>4</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>2059</v>
@@ -16747,7 +16741,7 @@
         <v>4</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>2060</v>
@@ -16761,7 +16755,7 @@
         <v>4</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>2061</v>
@@ -16775,7 +16769,7 @@
         <v>4</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>2062</v>
@@ -16789,7 +16783,7 @@
         <v>4</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>2063</v>
@@ -16803,7 +16797,7 @@
         <v>4</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>2064</v>
@@ -16817,13 +16811,13 @@
         <v>4</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>2065</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>1287</v>
+        <v>559</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
@@ -16831,13 +16825,13 @@
         <v>4</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>2066</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>559</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
@@ -16845,7 +16839,7 @@
         <v>4</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>2067</v>
@@ -16859,7 +16853,7 @@
         <v>4</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>2068</v>
@@ -16873,7 +16867,7 @@
         <v>4</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>2069</v>
@@ -16887,7 +16881,7 @@
         <v>4</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>2070</v>
@@ -16901,7 +16895,7 @@
         <v>4</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>2071</v>
@@ -16915,7 +16909,7 @@
         <v>4</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>2072</v>
@@ -16929,7 +16923,7 @@
         <v>4</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>2073</v>
@@ -16943,7 +16937,7 @@
         <v>4</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>2074</v>
@@ -16957,7 +16951,7 @@
         <v>4</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>2075</v>
@@ -16971,7 +16965,7 @@
         <v>4</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>2076</v>
@@ -16985,13 +16979,13 @@
         <v>4</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>2077</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>1298</v>
+        <v>571</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
@@ -16999,13 +16993,13 @@
         <v>4</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>2078</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>571</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
@@ -17013,7 +17007,7 @@
         <v>4</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>2079</v>
@@ -17027,7 +17021,7 @@
         <v>4</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>2080</v>
@@ -17041,7 +17035,7 @@
         <v>4</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>2081</v>
@@ -17055,7 +17049,7 @@
         <v>4</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>2082</v>
@@ -17069,7 +17063,7 @@
         <v>4</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>2083</v>
@@ -17083,7 +17077,7 @@
         <v>4</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>2084</v>
@@ -17097,7 +17091,7 @@
         <v>4</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>2085</v>
@@ -17111,7 +17105,7 @@
         <v>4</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>2086</v>
@@ -17125,7 +17119,7 @@
         <v>4</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>2087</v>
@@ -17139,7 +17133,7 @@
         <v>4</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>2088</v>
@@ -17153,13 +17147,13 @@
         <v>4</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>2089</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>1309</v>
+        <v>583</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
@@ -17167,13 +17161,13 @@
         <v>4</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>2090</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>583</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -17181,13 +17175,13 @@
         <v>4</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>2091</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>1043</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
@@ -17195,7 +17189,7 @@
         <v>4</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C699" s="2" t="s">
         <v>2092</v>
@@ -17209,7 +17203,7 @@
         <v>4</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>2093</v>
@@ -17223,7 +17217,7 @@
         <v>4</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>2094</v>
@@ -17237,7 +17231,7 @@
         <v>4</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>2095</v>
@@ -17251,13 +17245,13 @@
         <v>4</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>2096</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>1314</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
@@ -17265,13 +17259,13 @@
         <v>4</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>2097</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>1068</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
@@ -17279,7 +17273,7 @@
         <v>4</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>2098</v>
@@ -17293,13 +17287,13 @@
         <v>4</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>592</v>
+        <v>258</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>2099</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>1316</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
@@ -17307,13 +17301,13 @@
         <v>4</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>258</v>
+        <v>593</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>2100</v>
       </c>
       <c r="D707" s="2" t="s">
-        <v>1069</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
@@ -17321,7 +17315,7 @@
         <v>4</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>2101</v>
@@ -17335,7 +17329,7 @@
         <v>4</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>2102</v>
@@ -17349,7 +17343,7 @@
         <v>4</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>2103</v>
@@ -17363,7 +17357,7 @@
         <v>4</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>2104</v>
@@ -17377,7 +17371,7 @@
         <v>4</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>2105</v>
@@ -17391,7 +17385,7 @@
         <v>4</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>2106</v>
@@ -17405,7 +17399,7 @@
         <v>4</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>2107</v>
@@ -17419,7 +17413,7 @@
         <v>4</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>2108</v>
@@ -17433,7 +17427,7 @@
         <v>4</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>2109</v>
@@ -17447,7 +17441,7 @@
         <v>4</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C717" s="2" t="s">
         <v>2110</v>
@@ -17461,7 +17455,7 @@
         <v>4</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>2111</v>
@@ -17475,7 +17469,7 @@
         <v>4</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>2112</v>
@@ -17489,7 +17483,7 @@
         <v>4</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C720" s="2" t="s">
         <v>2113</v>
@@ -17503,7 +17497,7 @@
         <v>4</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>2114</v>
@@ -17517,7 +17511,7 @@
         <v>4</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>2115</v>
@@ -17531,7 +17525,7 @@
         <v>4</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>2116</v>
@@ -17545,7 +17539,7 @@
         <v>4</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>2117</v>
@@ -17559,13 +17553,13 @@
         <v>4</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>2118</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>1334</v>
+        <v>611</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.3">
@@ -17573,13 +17567,13 @@
         <v>4</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>2119</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>611</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
@@ -17587,7 +17581,7 @@
         <v>4</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C727" s="2" t="s">
         <v>2120</v>
@@ -17601,7 +17595,7 @@
         <v>4</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C728" s="2" t="s">
         <v>2121</v>
@@ -17615,7 +17609,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>2122</v>
@@ -17629,7 +17623,7 @@
         <v>4</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>2123</v>
@@ -17643,7 +17637,7 @@
         <v>4</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>2124</v>
@@ -17657,7 +17651,7 @@
         <v>4</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>2125</v>
@@ -17671,7 +17665,7 @@
         <v>4</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>2126</v>
@@ -17685,7 +17679,7 @@
         <v>4</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>2127</v>
@@ -17699,7 +17693,7 @@
         <v>4</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C735" s="2" t="s">
         <v>2128</v>
@@ -17713,7 +17707,7 @@
         <v>4</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>2129</v>
@@ -17727,13 +17721,13 @@
         <v>4</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>2130</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>1345</v>
+        <v>623</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
@@ -17741,13 +17735,13 @@
         <v>4</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C738" s="2" t="s">
         <v>2131</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>623</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.3">
@@ -17755,7 +17749,7 @@
         <v>4</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C739" s="2" t="s">
         <v>2132</v>
@@ -17769,7 +17763,7 @@
         <v>4</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C740" s="2" t="s">
         <v>2133</v>
@@ -17783,7 +17777,7 @@
         <v>4</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C741" s="2" t="s">
         <v>2134</v>
@@ -17797,7 +17791,7 @@
         <v>4</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C742" s="2" t="s">
         <v>2135</v>
@@ -17811,7 +17805,7 @@
         <v>4</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C743" s="2" t="s">
         <v>2136</v>
@@ -17825,7 +17819,7 @@
         <v>4</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C744" s="2" t="s">
         <v>2137</v>
@@ -17839,7 +17833,7 @@
         <v>4</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C745" s="2" t="s">
         <v>2138</v>
@@ -17853,7 +17847,7 @@
         <v>4</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C746" s="2" t="s">
         <v>2139</v>
@@ -17867,7 +17861,7 @@
         <v>4</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>2140</v>
@@ -17881,13 +17875,13 @@
         <v>4</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>2141</v>
       </c>
       <c r="D748" s="2" t="s">
-        <v>1355</v>
+        <v>634</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.3">
@@ -17895,13 +17889,13 @@
         <v>4</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>2142</v>
       </c>
       <c r="D749" s="2" t="s">
-        <v>634</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
@@ -17909,7 +17903,7 @@
         <v>4</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>2143</v>
@@ -17923,7 +17917,7 @@
         <v>4</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>2144</v>
@@ -17937,7 +17931,7 @@
         <v>4</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C752" s="2" t="s">
         <v>2145</v>
@@ -17951,7 +17945,7 @@
         <v>4</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>2146</v>
@@ -17965,13 +17959,13 @@
         <v>4</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>2147</v>
       </c>
       <c r="D754" s="2" t="s">
-        <v>1360</v>
+        <v>640</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
@@ -17979,13 +17973,13 @@
         <v>4</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>2148</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
@@ -17993,13 +17987,13 @@
         <v>4</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>2149</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>641</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
@@ -18007,7 +18001,7 @@
         <v>4</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>2150</v>
@@ -18021,7 +18015,7 @@
         <v>4</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C758" s="2" t="s">
         <v>2151</v>
@@ -18035,7 +18029,7 @@
         <v>4</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>2152</v>
@@ -18049,7 +18043,7 @@
         <v>4</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C760" s="2" t="s">
         <v>2153</v>
@@ -18063,7 +18057,7 @@
         <v>4</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>2154</v>
@@ -18077,7 +18071,7 @@
         <v>4</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C762" s="2" t="s">
         <v>2155</v>
@@ -18088,10 +18082,10 @@
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>2156</v>
@@ -18105,7 +18099,7 @@
         <v>5</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>2157</v>
@@ -18119,7 +18113,7 @@
         <v>5</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>2158</v>
@@ -18133,7 +18127,7 @@
         <v>5</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>2159</v>
@@ -18147,7 +18141,7 @@
         <v>5</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C767" s="2" t="s">
         <v>2160</v>
@@ -18161,7 +18155,7 @@
         <v>5</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>2161</v>
@@ -18175,7 +18169,7 @@
         <v>5</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>2162</v>
@@ -18189,7 +18183,7 @@
         <v>5</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>2163</v>
@@ -18203,7 +18197,7 @@
         <v>5</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>2164</v>
@@ -18217,7 +18211,7 @@
         <v>5</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>2165</v>
@@ -18231,7 +18225,7 @@
         <v>5</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>2166</v>
@@ -18245,7 +18239,7 @@
         <v>5</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C774" s="2" t="s">
         <v>2167</v>
@@ -18259,7 +18253,7 @@
         <v>5</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>2168</v>
@@ -18273,7 +18267,7 @@
         <v>5</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C776" s="2" t="s">
         <v>2169</v>
@@ -18287,7 +18281,7 @@
         <v>5</v>
       </c>
       <c r="B777" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C777" s="2" t="s">
         <v>2170</v>
@@ -18301,7 +18295,7 @@
         <v>5</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>2171</v>
@@ -18315,7 +18309,7 @@
         <v>5</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C779" s="2" t="s">
         <v>2172</v>
@@ -18329,7 +18323,7 @@
         <v>5</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C780" s="2" t="s">
         <v>2173</v>
@@ -18343,7 +18337,7 @@
         <v>5</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C781" s="2" t="s">
         <v>2174</v>
@@ -18357,7 +18351,7 @@
         <v>5</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C782" s="2" t="s">
         <v>2175</v>
@@ -18371,7 +18365,7 @@
         <v>5</v>
       </c>
       <c r="B783" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C783" s="2" t="s">
         <v>2176</v>
@@ -18385,7 +18379,7 @@
         <v>5</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C784" s="2" t="s">
         <v>2177</v>
@@ -18399,7 +18393,7 @@
         <v>5</v>
       </c>
       <c r="B785" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C785" s="2" t="s">
         <v>2178</v>
@@ -18413,7 +18407,7 @@
         <v>5</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>2179</v>
@@ -18427,7 +18421,7 @@
         <v>5</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C787" s="2" t="s">
         <v>2180</v>
@@ -18441,7 +18435,7 @@
         <v>5</v>
       </c>
       <c r="B788" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C788" s="2" t="s">
         <v>2181</v>
@@ -18455,7 +18449,7 @@
         <v>5</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C789" s="2" t="s">
         <v>2182</v>
@@ -18469,7 +18463,7 @@
         <v>5</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C790" s="2" t="s">
         <v>2183</v>
@@ -18483,7 +18477,7 @@
         <v>5</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C791" s="2" t="s">
         <v>2184</v>
@@ -18497,7 +18491,7 @@
         <v>5</v>
       </c>
       <c r="B792" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C792" s="2" t="s">
         <v>2185</v>
@@ -18511,7 +18505,7 @@
         <v>5</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C793" s="2" t="s">
         <v>2186</v>
@@ -18525,7 +18519,7 @@
         <v>5</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C794" s="2" t="s">
         <v>2187</v>
@@ -18539,7 +18533,7 @@
         <v>5</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C795" s="2" t="s">
         <v>2188</v>
@@ -18553,7 +18547,7 @@
         <v>5</v>
       </c>
       <c r="B796" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C796" s="2" t="s">
         <v>2189</v>
@@ -18567,7 +18561,7 @@
         <v>5</v>
       </c>
       <c r="B797" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C797" s="2" t="s">
         <v>2190</v>
@@ -18581,7 +18575,7 @@
         <v>5</v>
       </c>
       <c r="B798" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C798" s="2" t="s">
         <v>2191</v>
@@ -18595,7 +18589,7 @@
         <v>5</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C799" s="2" t="s">
         <v>2192</v>
@@ -18609,7 +18603,7 @@
         <v>5</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C800" s="2" t="s">
         <v>2193</v>
@@ -18623,7 +18617,7 @@
         <v>5</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C801" s="2" t="s">
         <v>2194</v>
@@ -18637,7 +18631,7 @@
         <v>5</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C802" s="2" t="s">
         <v>2195</v>
@@ -18651,7 +18645,7 @@
         <v>5</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C803" s="2" t="s">
         <v>2196</v>
@@ -18665,7 +18659,7 @@
         <v>5</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C804" s="2" t="s">
         <v>2197</v>
@@ -18679,7 +18673,7 @@
         <v>5</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C805" s="2" t="s">
         <v>2198</v>
@@ -18693,7 +18687,7 @@
         <v>5</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C806" s="2" t="s">
         <v>2199</v>
@@ -18707,7 +18701,7 @@
         <v>5</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C807" s="2" t="s">
         <v>2200</v>
@@ -18721,7 +18715,7 @@
         <v>5</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C808" s="2" t="s">
         <v>2201</v>
@@ -18735,7 +18729,7 @@
         <v>5</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C809" s="2" t="s">
         <v>2202</v>
@@ -18749,7 +18743,7 @@
         <v>5</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C810" s="2" t="s">
         <v>2203</v>
@@ -18763,13 +18757,13 @@
         <v>5</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C811" s="2" t="s">
         <v>2204</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>1415</v>
+        <v>697</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -18777,13 +18771,13 @@
         <v>5</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C812" s="2" t="s">
         <v>2205</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>697</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -18791,7 +18785,7 @@
         <v>5</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C813" s="2" t="s">
         <v>2206</v>
@@ -18805,7 +18799,7 @@
         <v>5</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C814" s="2" t="s">
         <v>2207</v>
@@ -18819,7 +18813,7 @@
         <v>5</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C815" s="2" t="s">
         <v>2208</v>
@@ -18833,7 +18827,7 @@
         <v>5</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C816" s="2" t="s">
         <v>2209</v>
@@ -18847,7 +18841,7 @@
         <v>5</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C817" s="2" t="s">
         <v>2210</v>
@@ -18861,7 +18855,7 @@
         <v>5</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C818" s="2" t="s">
         <v>2211</v>
@@ -18875,7 +18869,7 @@
         <v>5</v>
       </c>
       <c r="B819" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C819" s="2" t="s">
         <v>2212</v>
@@ -18889,13 +18883,13 @@
         <v>5</v>
       </c>
       <c r="B820" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C820" s="2" t="s">
         <v>2213</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>1423</v>
+        <v>706</v>
       </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
@@ -18903,13 +18897,13 @@
         <v>5</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C821" s="2" t="s">
         <v>2214</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>706</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
@@ -18917,7 +18911,7 @@
         <v>5</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C822" s="2" t="s">
         <v>2215</v>
@@ -18931,7 +18925,7 @@
         <v>5</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C823" s="2" t="s">
         <v>2216</v>
@@ -18945,7 +18939,7 @@
         <v>5</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C824" s="2" t="s">
         <v>2217</v>
@@ -18959,27 +18953,13 @@
         <v>5</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C825" s="2" t="s">
         <v>2218</v>
       </c>
       <c r="D825" s="2" t="s">
         <v>1427</v>
-      </c>
-    </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A826" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B826" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="C826" s="2" t="s">
-        <v>2219</v>
-      </c>
-      <c r="D826" s="2" t="s">
-        <v>1428</v>
       </c>
     </row>
   </sheetData>
